--- a/data/daily/call_apicases_daily.xlsx
+++ b/data/daily/call_apicases_daily.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="16416" windowWidth="0" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="16416" windowWidth="0" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="test_call_queue" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="test_call_sheet (2)" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,12 +28,6 @@
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -56,6 +50,12 @@
       <family val="3"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -104,52 +104,61 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +498,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -504,8 +513,7 @@
     <col customWidth="1" max="5" min="5" width="63.44140625"/>
     <col customWidth="1" max="6" min="6" width="35.21875"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="20.109375"/>
-    <col customWidth="1" max="8" min="8" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="7.77734375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -544,18 +552,13 @@
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="117" r="2">
+    <row customHeight="1" ht="139.2" r="2">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -619,8 +622,7 @@
 }</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -690,8 +692,7 @@
 }</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -729,8 +730,7 @@
 }</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -768,8 +768,7 @@
 }</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -789,7 +788,7 @@
           <t>队列状态监控</t>
         </is>
       </c>
-      <c r="D6" s="18" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
@@ -806,8 +805,7 @@
 }</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -851,8 +849,7 @@
 }</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -870,23 +867,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="6.77734375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="18.44140625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="35.88671875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="7.109375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="49.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="35.88671875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="5" width="7.109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="19" width="49.33203125"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="13"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="9.88671875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="22.6640625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="13.05" r="1">
@@ -900,17 +897,17 @@
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="21" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="20" t="inlineStr">
         <is>
           <t>data</t>
         </is>
@@ -925,47 +922,90 @@
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="51.6" r="2">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>jsonpath_exp_save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="50.4" r="2">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
+          <t>list_queues</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>查询队列列表</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E2" s="12" t="inlineStr">
+        <is>
+          <t>limit=20&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" s="11" t="inlineStr">
+        <is>
+          <t>[{"qno":"queues[0].qno"}]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="165" r="3">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
           <t>create_client</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>新增座席成功</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
         <is>
           <t>{
     "cno":"#client_daily_cno#",
     "name":"自动化新增座席请勿操作",
     "areaCode":"010",
-    "password":"e863ff95896f2fbb37f8b145317e3ea2",
+    "password":"4efa597dbce5d8f12a508d5ace6c5743",
     "role":1,
     "active":1,
     "qnos":[
-        "0000"
+        "#qno#"
     ],
     "hiddenTel":1,
     "permission":{
@@ -983,59 +1023,54 @@
 }</t>
         </is>
       </c>
-      <c r="F2" s="13" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G2" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="14" t="inlineStr">
-        <is>
-          <t>{"requestId":"fd152787-30be-911c-826b-8e9ec7eef5d5","error":{"code":"ClientExist","message":"座席号已经存在"}}</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="138.6" r="3">
-      <c r="A3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="G3" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="171.6" r="4">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>update_client</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>更新座席成功</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
         <is>
           <t>{
     "cno":"#client_daily_cno#",
     "name":"自动化新增座席请勿操作new",
     "areaCode":"010",
-    "password":"e863ff95896f2fbb37f8b145317e3ea2",
+    "password":"634b1214c7bc5af7f4cf21c8706d182a",
     "role":1,
     "active":1,
     "qnos":[
-        "0000"
+        "#qno#"
     ],
     "hiddenTel":1,
     "permission":{
@@ -1053,98 +1088,57 @@
 }</t>
         </is>
       </c>
-      <c r="F3" s="13" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G3" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H3" s="14" t="n"/>
-      <c r="I3" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="65.40000000000001" r="4">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>list_clients</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>查询座席列表成功</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>limit=10&amp;offset=0</t>
-        </is>
-      </c>
-      <c r="F4" s="13" t="n"/>
-      <c r="G4" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H4" s="14" t="n"/>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="5">
+      <c r="G4" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="5">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>list_clients</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>查询座席列表成功（按照队列查询）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>qno=0000</t>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>查询座席列表成功</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>limit=10&amp;offset=0</t>
         </is>
       </c>
       <c r="F5" s="13" t="n"/>
-      <c r="G5" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="9" t="inlineStr">
+      <c r="G5" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1156,59 +1150,96 @@
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>describe_client</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>查询座席详情成功</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>cno=#client_daily_cno#</t>
+          <t>list_clients</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>查询座席列表成功（按照队列查询）</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>qno=#qno#</t>
         </is>
       </c>
       <c r="F6" s="13" t="n"/>
-      <c r="G6" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="96.59999999999999" r="7">
+      <c r="G6" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H6" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="7">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>describe_client</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>查询座席详情成功</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>cno=#client_daily_cno#</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="96.59999999999999" r="8">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>create_exten</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>新建ip电话</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
         <is>
           <t>{
             "extenNumber": (None, "#daily_phone#"),
@@ -1219,45 +1250,44 @@
 }</t>
         </is>
       </c>
-      <c r="F7" s="16" t="inlineStr">
+      <c r="F8" s="14" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G7" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="69" r="8">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="G8" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="69" r="9">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>bind_client_tel</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>绑定话机成功</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
         <is>
           <t>{
     "cno":"#client_daily_cno#",
@@ -1266,83 +1296,81 @@
 }</t>
         </is>
       </c>
-      <c r="F8" s="16" t="inlineStr">
+      <c r="F9" s="14" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G8" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="9">
-      <c r="A9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>agent_status</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>座席状态监控</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>cno=#client_daily_cno#</t>
-        </is>
-      </c>
-      <c r="G9" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="84" r="10">
+      <c r="G9" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="10">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="inlineStr">
         <is>
+          <t>agent_status</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>座席状态监控</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>cno=#client_daily_cno#</t>
+        </is>
+      </c>
+      <c r="G10" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="11">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
           <t>online</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>座席上线</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>{
     "cno":"#client_daily_cno#",
@@ -1352,58 +1380,19 @@
 }</t>
         </is>
       </c>
-      <c r="F10" s="16" t="inlineStr">
+      <c r="F11" s="14" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G10" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="64.8" r="11">
-      <c r="A11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="inlineStr">
-        <is>
-          <t>agent_status_detail</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>座席状态详情</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>cno=#client_daily_cno#</t>
-        </is>
-      </c>
-      <c r="G11" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" t="inlineStr">
+      <c r="G11" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1415,20 +1404,57 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
+          <t>agent_status_detail</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>座席状态详情</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>cno=#client_daily_cno#</t>
+        </is>
+      </c>
+      <c r="G12" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="64.8" r="13">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>座席下线</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E13" s="12" t="inlineStr">
         <is>
           <t>{
     "cno":"#client_daily_cno#",
@@ -1436,94 +1462,88 @@
 }</t>
         </is>
       </c>
-      <c r="F12" s="16" t="inlineStr">
+      <c r="F13" s="14" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G12" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="13">
-      <c r="A13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>unbind_client_tel</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>解绑话机成功</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#"
-}</t>
-        </is>
-      </c>
-      <c r="F13" s="16" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="G13" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H13" s="14" t="inlineStr">
-        <is>
-          <t>{"requestId":"6b2ddb82-40b1-9aa4-aca0-16167303a210","error":{"code":"ClientOnline","message":"座席在线不能解绑座席"}}</t>
-        </is>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="96.59999999999999" r="14">
+      <c r="G13" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="14">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>unbind_client_tel</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>解绑话机成功</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E14" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "cno":"#client_daily_cno#"
+}</t>
+        </is>
+      </c>
+      <c r="F14" s="14" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="G14" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H14" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="96.59999999999999" r="15">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
         <is>
           <t>delete_client_tel</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>删除座席电话成功</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E15" s="12" t="inlineStr">
         <is>
           <t>{
     "cno":"#client_daily_cno#",
@@ -1531,94 +1551,88 @@
 }</t>
         </is>
       </c>
-      <c r="F14" s="16" t="inlineStr">
+      <c r="F15" s="14" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G14" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H14" s="14" t="n"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.95" r="15">
-      <c r="A15" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>delete_client</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>删除座席成功</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>{
-    "cno":"#client_daily_cno#"
-}</t>
-        </is>
-      </c>
-      <c r="F15" s="16" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="G15" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H15" s="14" t="inlineStr">
-        <is>
-          <t>{"requestId":"a1466514-7413-9441-824a-399b2d38e871","error":{"code":"ClientOnline","message":"座席号在线中不允许删除"}}</t>
-        </is>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="96.59999999999999" r="16">
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H15" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="49.95" r="16">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
+          <t>delete_client</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>删除座席成功</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E16" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "cno":"#client_daily_cno#"
+}</t>
+        </is>
+      </c>
+      <c r="F16" s="14" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="G16" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H16" s="9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="96.59999999999999" r="17">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
           <t>update_exten</t>
         </is>
       </c>
-      <c r="C16" s="16" t="inlineStr">
+      <c r="C17" s="23" t="inlineStr">
         <is>
           <t>修改话机</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E16" s="15" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E17" s="12" t="inlineStr">
         <is>
           <t>{
             "extenNumber": (None, "#daily_phone#"),
@@ -1629,62 +1643,19 @@
 }</t>
         </is>
       </c>
-      <c r="F16" s="16" t="inlineStr">
+      <c r="F17" s="14" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G16" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H16" s="14" t="inlineStr">
-        <is>
-          <t>{"requestId":"0f019bf7-47f5-9110-9fd8-a691643da272","error":{"code":"InternalError","message":"服务内部错误，请稍后再试，或联系技术支持"}}</t>
-        </is>
-      </c>
-      <c r="I16" s="9" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="17">
-      <c r="A17" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>describe_exten</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>查询话机详情</t>
-        </is>
-      </c>
-      <c r="D17" s="11" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>extenNumber=#daily_phone#</t>
-        </is>
-      </c>
-      <c r="G17" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H17" s="14" t="n"/>
-      <c r="I17" t="inlineStr">
+      <c r="G17" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H17" s="9" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1696,34 +1667,32 @@
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>list_extens</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>查询话机列表</t>
-        </is>
-      </c>
-      <c r="D18" s="11" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>areaCode=010&amp;limit=10&amp;offset=0&amp;type=2</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H18" s="14" t="n"/>
-      <c r="I18" t="inlineStr">
+          <t>describe_exten</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>查询话机详情</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E18" s="12" t="inlineStr">
+        <is>
+          <t>extenNumber=#daily_phone#</t>
+        </is>
+      </c>
+      <c r="G18" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1733,42 +1702,79 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>list_extens</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>查询话机列表</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E19" s="12" t="inlineStr">
+        <is>
+          <t>areaCode=010&amp;limit=10&amp;offset=0&amp;type=2</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="20">
+      <c r="A20" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>delete_exten</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>删除话机</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E20" s="12" t="inlineStr">
         <is>
           <t>{
  "extenNumber": (None, "#daily_phone#")
 }</t>
         </is>
       </c>
-      <c r="F19" s="16" t="inlineStr">
+      <c r="F20" s="14" t="inlineStr">
         <is>
           <t>form-data</t>
         </is>
       </c>
-      <c r="G19" s="20" t="inlineStr">
-        <is>
-          <t>{
-    "status_code": 200
-}</t>
-        </is>
-      </c>
-      <c r="H19" s="14" t="n"/>
-      <c r="I19" t="inlineStr">
+      <c r="G20" s="18" t="inlineStr">
+        <is>
+          <t>{
+    "status_code": 200
+}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1786,10 +1792,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1801,8 +1807,7 @@
     <col bestFit="1" customWidth="1" max="5" min="5" width="12.88671875"/>
     <col customWidth="1" max="6" min="6" width="35.33203125"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="9.88671875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="7.77734375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1841,12 +1846,7 @@
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -1879,8 +1879,7 @@
 }</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1918,8 +1917,7 @@
 }</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1936,10 +1934,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -1951,8 +1949,7 @@
     <col bestFit="1" customWidth="1" max="5" min="5" width="38.44140625"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="13"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="9.88671875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7.5546875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="13.05" r="1">
@@ -1991,12 +1988,7 @@
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2024,7 +2016,7 @@
       <c r="E2" s="3" t="inlineStr">
         <is>
           <t>{
-   "cno":"1089",   
+   "cno":"#cno#",   
    "tel":"#daily_sms_phone#",
    "content":"您的余额不足，请充值"
 }</t>
@@ -2042,14 +2034,9 @@
 }</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>{"requestId":"c5abea96-9837-9bb4-aebe-0fae7e7094e7","error":{"code":"SmsSendFailure","message":"未知错误"}}</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>未通过</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2062,7 @@
       <c r="E3" s="3" t="inlineStr">
         <is>
           <t>{
-    "cno":"1089", 
+    "cno":"#cno#", 
     "tel":"13201646126123",
     "content":"您的余额不足，请充值容"
 }</t>
@@ -2093,8 +2080,7 @@
 }</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2131,8 +2117,7 @@
 }</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2149,10 +2134,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -2164,8 +2149,7 @@
     <col customWidth="1" max="5" min="5" width="28.44140625"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="13"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="9.88671875"/>
-    <col customWidth="1" max="9" min="9" width="21.5546875"/>
+    <col customWidth="1" max="8" min="8" width="21.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2204,12 +2188,7 @@
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2242,8 +2221,7 @@
 }</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2280,8 +2258,7 @@
 }</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2318,8 +2295,7 @@
 }</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2351,8 +2327,7 @@
 }</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2389,8 +2364,7 @@
 }</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2427,8 +2401,7 @@
 }</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2460,8 +2433,7 @@
 }</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2493,8 +2465,7 @@
 }</t>
         </is>
       </c>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2512,10 +2483,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -2527,8 +2498,7 @@
     <col customWidth="1" max="5" min="5" width="47.109375"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="13"/>
     <col customWidth="1" max="7" min="7" width="18.44140625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="9.88671875"/>
-    <col customWidth="1" max="9" min="9" width="6.33203125"/>
+    <col customWidth="1" max="8" min="8" width="6.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2567,12 +2537,7 @@
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>error_json</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2587,7 +2552,7 @@
           <t>stat_client_status</t>
         </is>
       </c>
-      <c r="C2" s="17" t="inlineStr">
+      <c r="C2" s="15" t="inlineStr">
         <is>
           <t>座席状态报表</t>
         </is>
@@ -2616,8 +2581,7 @@
 }</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2632,7 +2596,7 @@
           <t>stat_client_workload</t>
         </is>
       </c>
-      <c r="C3" s="17" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>座席工作量报表</t>
         </is>
@@ -2642,7 +2606,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="19" t="inlineStr">
+      <c r="E3" s="17" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2662,8 +2626,7 @@
 }</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2678,7 +2641,7 @@
           <t>stat_queue</t>
         </is>
       </c>
-      <c r="C4" s="17" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>队列报表</t>
         </is>
@@ -2688,7 +2651,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="19" t="inlineStr">
+      <c r="E4" s="17" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2708,8 +2671,7 @@
 }</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2724,7 +2686,7 @@
           <t>stat_hotline_ib</t>
         </is>
       </c>
-      <c r="C5" s="17" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>呼入报表-来电统计</t>
         </is>
@@ -2734,7 +2696,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="19" t="inlineStr">
+      <c r="E5" s="17" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2754,8 +2716,7 @@
 }</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2770,7 +2731,7 @@
           <t>stat_preview_ob</t>
         </is>
       </c>
-      <c r="C6" s="17" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
         <is>
           <t>预览外呼报表</t>
         </is>
@@ -2780,7 +2741,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="19" t="inlineStr">
+      <c r="E6" s="17" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2800,8 +2761,7 @@
 }</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2816,7 +2776,7 @@
           <t>stat_investigation_by_cno</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>满意度报表按座席统计</t>
         </is>
@@ -2826,7 +2786,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="19" t="inlineStr">
+      <c r="E7" s="17" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2846,8 +2806,7 @@
 }</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2862,7 +2821,7 @@
           <t>stat_investigation_by_hotlines</t>
         </is>
       </c>
-      <c r="C8" s="17" t="inlineStr">
+      <c r="C8" s="15" t="inlineStr">
         <is>
           <t>满意度报表按热线号码统计</t>
         </is>
@@ -2872,7 +2831,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="19" t="inlineStr">
+      <c r="E8" s="17" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2892,8 +2851,7 @@
 }</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2908,7 +2866,7 @@
           <t>stat_ivr_list</t>
         </is>
       </c>
-      <c r="C9" s="17" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>IVR统计报表</t>
         </is>
@@ -2918,7 +2876,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E9" s="19" t="inlineStr">
+      <c r="E9" s="17" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#"),
@@ -2938,8 +2896,7 @@
 }</t>
         </is>
       </c>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -2954,7 +2911,7 @@
           <t>stat_ivr_nodes</t>
         </is>
       </c>
-      <c r="C10" s="17" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>IVR节点统计报表</t>
         </is>
@@ -2964,7 +2921,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E10" s="19" t="inlineStr">
+      <c r="E10" s="17" t="inlineStr">
         <is>
           <t>{
             "date": (None, "#date#")
@@ -2983,8 +2940,7 @@
 }</t>
         </is>
       </c>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -3004,8 +2960,8 @@
   </sheetPr>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:H59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
